--- a/data/trans_orig/P13A_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5399</v>
+        <v>5875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17467</v>
+        <v>17710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01763187112739617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009337553231324788</v>
+        <v>0.01016044158047212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0302098688654871</v>
+        <v>0.03062958595132469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -762,19 +762,19 @@
         <v>42998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34537</v>
+        <v>33024</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53612</v>
+        <v>53172</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05260120590331481</v>
+        <v>0.05260120590331482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04225026662717312</v>
+        <v>0.04039959265820599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06558646588667282</v>
+        <v>0.06504797127379716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -783,19 +783,19 @@
         <v>53192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42355</v>
+        <v>41991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66122</v>
+        <v>67456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03811385574433115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03034882946373633</v>
+        <v>0.03008790570903844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04737859518442127</v>
+        <v>0.04833391736456125</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>567992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>560720</v>
+        <v>560477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572788</v>
+        <v>572312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9823681288726038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9697901311345131</v>
+        <v>0.9693704140486755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906624467686753</v>
+        <v>0.9898395584195278</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1349</v>
@@ -833,19 +833,19 @@
         <v>774434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>763820</v>
+        <v>764260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>782895</v>
+        <v>784408</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9473987940966853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9344135341133271</v>
+        <v>0.9349520287262021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.957749733372827</v>
+        <v>0.959600407341794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2025</v>
@@ -854,19 +854,19 @@
         <v>1342427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329497</v>
+        <v>1328163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1353264</v>
+        <v>1353628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9618861442556689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9526214048155786</v>
+        <v>0.9516660826354388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9696511705362637</v>
+        <v>0.9699120942909614</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>27327</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17846</v>
+        <v>17216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37848</v>
+        <v>39933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01231579357494638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008042778270861419</v>
+        <v>0.007758979156544361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0170572818673878</v>
+        <v>0.01799685660930666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -979,19 +979,19 @@
         <v>87561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72141</v>
+        <v>71452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106763</v>
+        <v>107230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04053095047878807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03339356592907578</v>
+        <v>0.03307456469236534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04941946904487943</v>
+        <v>0.04963565722396641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -1000,19 +1000,19 @@
         <v>114888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98354</v>
+        <v>94695</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139478</v>
+        <v>135432</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02623473798139343</v>
+        <v>0.02623473798139344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02245921167059007</v>
+        <v>0.02162374170876985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03184984341643997</v>
+        <v>0.03092602258827572</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2191565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2181044</v>
+        <v>2178959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2201046</v>
+        <v>2201676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9876842064250534</v>
+        <v>0.9876842064250536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9829427181326122</v>
+        <v>0.9820031433906931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9919572217291385</v>
+        <v>0.9922410208434558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2789</v>
@@ -1050,19 +1050,19 @@
         <v>2072776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2053574</v>
+        <v>2053107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2088196</v>
+        <v>2088885</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9594690495212119</v>
+        <v>0.9594690495212118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9505805309551204</v>
+        <v>0.9503643427760335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9666064340709243</v>
+        <v>0.9669254353076346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4743</v>
@@ -1071,19 +1071,19 @@
         <v>4264341</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4239751</v>
+        <v>4243797</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4280875</v>
+        <v>4284534</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9737652620186066</v>
+        <v>0.9737652620186068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681501565835602</v>
+        <v>0.9690739774117243</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9775407883294099</v>
+        <v>0.9783762582912301</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8173</v>
+        <v>8527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003356250921572953</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01149596541340769</v>
+        <v>0.01199387517246934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1196,19 +1196,19 @@
         <v>23854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15371</v>
+        <v>16207</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35331</v>
+        <v>35473</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03256909524178264</v>
+        <v>0.03256909524178265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02098760979730776</v>
+        <v>0.02212903280200702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0482401447158542</v>
+        <v>0.04843293880483525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1217,19 +1217,19 @@
         <v>26240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17444</v>
+        <v>17473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38419</v>
+        <v>36989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01817954028114731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01208548251203658</v>
+        <v>0.01210590091226691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02661707553602556</v>
+        <v>0.02562698229357187</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>708589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>702802</v>
+        <v>702448</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>710975</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9966437490784269</v>
+        <v>0.9966437490784271</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9885040345865928</v>
+        <v>0.9880061248275309</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>708551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697074</v>
+        <v>696932</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717034</v>
+        <v>716198</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9674309047582174</v>
+        <v>0.9674309047582175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9517598552841458</v>
+        <v>0.9515670611951649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9790123902026923</v>
+        <v>0.9778709671979929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1650</v>
@@ -1288,19 +1288,19 @@
         <v>1417140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1404961</v>
+        <v>1406391</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1425936</v>
+        <v>1425907</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9818204597188527</v>
+        <v>0.9818204597188526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9733829244639745</v>
+        <v>0.9743730177064281</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9879145174879633</v>
+        <v>0.9878940990877331</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>39908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28142</v>
+        <v>28909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55362</v>
+        <v>54259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01137614992353945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00802217356084662</v>
+        <v>0.008240624406510206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01578137906432545</v>
+        <v>0.01546711676056011</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1413,19 +1413,19 @@
         <v>154412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134116</v>
+        <v>132726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176267</v>
+        <v>178030</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04161858336266573</v>
+        <v>0.04161858336266574</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03614829078736839</v>
+        <v>0.03577341083482388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04750903145992187</v>
+        <v>0.0479843774131288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -1434,19 +1434,19 @@
         <v>194320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168533</v>
+        <v>170112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222453</v>
+        <v>223376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02692078063531701</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02334829418800583</v>
+        <v>0.02356693756385026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03081826374504024</v>
+        <v>0.03094615000562698</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3468146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3452692</v>
+        <v>3453795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3479912</v>
+        <v>3479145</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9886238500764606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9842186209356745</v>
+        <v>0.98453288323944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919778264391533</v>
+        <v>0.9917593755934898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5110</v>
@@ -1484,19 +1484,19 @@
         <v>3555762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3533907</v>
+        <v>3532144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3576058</v>
+        <v>3577448</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9583814166373342</v>
+        <v>0.9583814166373343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9524909685400781</v>
+        <v>0.9520156225868709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9638517092126314</v>
+        <v>0.964226589165176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8418</v>
@@ -1505,19 +1505,19 @@
         <v>7023908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6995775</v>
+        <v>6994852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7049695</v>
+        <v>7048116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9730792193646829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9691817362549596</v>
+        <v>0.9690538499943731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9766517058119941</v>
+        <v>0.9764330624361497</v>
       </c>
     </row>
     <row r="15">
